--- a/target/classes/com/MSME/HRMS/TestData/HRMSTestData.xlsx
+++ b/target/classes/com/MSME/HRMS/TestData/HRMSTestData.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Testing\Jenveda\src\main\java\com\MSME\HRMS\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Testing\Jenveda\src\main\java\com\MSME\HRMS\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96054700-8233-47EC-8816-C622F73503BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C0F834-2052-4A51-95FE-588071014D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7908D011-D547-485D-96C7-C7A90ED75828}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{7908D011-D547-485D-96C7-C7A90ED75828}"/>
   </bookViews>
   <sheets>
-    <sheet name="claimSetUp" sheetId="11" r:id="rId1"/>
-    <sheet name="EditClaimSetUp" sheetId="10" r:id="rId2"/>
-    <sheet name="holidaysAll" sheetId="9" r:id="rId3"/>
-    <sheet name="holidaySel" sheetId="8" r:id="rId4"/>
+    <sheet name="claimSetup" sheetId="1" r:id="rId1"/>
+    <sheet name="holidaysAll" sheetId="2" r:id="rId2"/>
+    <sheet name="holidaySel" sheetId="3" r:id="rId3"/>
+    <sheet name="holidayEdit" sheetId="7" r:id="rId4"/>
+    <sheet name="holidayEmp" sheetId="6" r:id="rId5"/>
+    <sheet name="EditClaimSetUp" sheetId="4" r:id="rId6"/>
+    <sheet name="Asset" sheetId="5" r:id="rId7"/>
+    <sheet name="voidAsset" sheetId="8" r:id="rId8"/>
+    <sheet name="EntitlementDetails" sheetId="9" r:id="rId9"/>
+    <sheet name="LeaveEntitlement" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="127">
   <si>
     <t>ClaimName</t>
   </si>
@@ -71,6 +77,21 @@
     <t>Selected</t>
   </si>
   <si>
+    <t>Deepika R</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Developer-Tester</t>
+  </si>
+  <si>
     <t>HolidayName</t>
   </si>
   <si>
@@ -83,163 +104,328 @@
     <t>ApplyTo</t>
   </si>
   <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>All</t>
+    <t>limitPerClaim</t>
+  </si>
+  <si>
+    <t>ResetCmb</t>
+  </si>
+  <si>
+    <t>Claim-1</t>
+  </si>
+  <si>
+    <t>Automation-PositiveTest-All Emp</t>
+  </si>
+  <si>
+    <t>Financial Year-End</t>
+  </si>
+  <si>
+    <t>Claim-2</t>
+  </si>
+  <si>
+    <t>Automation-PositiveTest-SelectedEmp</t>
+  </si>
+  <si>
+    <t>Calender Year-End</t>
   </si>
   <si>
     <t>Pardhu Sagar</t>
   </si>
   <si>
-    <t>Deepika R</t>
+    <t>Claim-3</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t>Automation-NegativeTest-SelectedEmp</t>
+  </si>
+  <si>
+    <t>Claim-4</t>
+  </si>
+  <si>
+    <t>Automation-NegativeTest-All Emp</t>
+  </si>
+  <si>
+    <t>Claim-5</t>
+  </si>
+  <si>
+    <t>Claim-6</t>
+  </si>
+  <si>
+    <t>Claim-7</t>
+  </si>
+  <si>
+    <t>Claim-8</t>
+  </si>
+  <si>
+    <t>Automation-Negative without Giving the Holiday Name</t>
+  </si>
+  <si>
+    <t>Automation-Negative without Giving any data</t>
+  </si>
+  <si>
+    <t>Automation- Negative Without giving the Start &amp; End Dates</t>
+  </si>
+  <si>
+    <t>Automation-Negative by giving Numbers in Holiday name Text Box</t>
+  </si>
+  <si>
+    <t>EditedHoliday</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Designation1</t>
+  </si>
+  <si>
+    <t>Designation2</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Department1</t>
+  </si>
+  <si>
+    <t>Department2</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>Fortend-Fortend</t>
+  </si>
+  <si>
+    <t>Backend-Backend</t>
+  </si>
+  <si>
+    <t>Automation-Selecting the Multiple Departments &amp; Designations</t>
+  </si>
+  <si>
+    <t>Automation-NegativeTest-SelectedEmp-trying to save withoutgiving Departments</t>
+  </si>
+  <si>
+    <t>EditClaimName</t>
   </si>
   <si>
     <t>AllToOption</t>
   </si>
   <si>
-    <t>limitPerClaim</t>
-  </si>
-  <si>
-    <t>Automation-PositiveTest-All Emp</t>
-  </si>
-  <si>
-    <t>Automation-PositiveTest-SelectedEmp</t>
-  </si>
-  <si>
-    <t>EditClaimName</t>
-  </si>
-  <si>
-    <t>Designation</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Developer</t>
-  </si>
-  <si>
-    <t>Developer-Tester</t>
-  </si>
-  <si>
-    <t>Automation-NegativeTest-SelectedEmp</t>
-  </si>
-  <si>
-    <t>Automation-NegativeTest-All Emp</t>
+    <t>Demo-ACK</t>
   </si>
   <si>
     <t>EditedClaim-AK</t>
   </si>
   <si>
-    <t>Automation-NegativeTest-SelectedEmp-trying to save withoutgiving Departments</t>
-  </si>
-  <si>
-    <t>Demo-ACK</t>
-  </si>
-  <si>
-    <t>Holiday-DK</t>
-  </si>
-  <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>Designation1</t>
-  </si>
-  <si>
-    <t>Designation2</t>
-  </si>
-  <si>
-    <t>Department1</t>
-  </si>
-  <si>
-    <t>Department2</t>
-  </si>
-  <si>
-    <t>Testing1</t>
-  </si>
-  <si>
-    <t>Backend</t>
-  </si>
-  <si>
-    <t>Fortend-Fortend</t>
-  </si>
-  <si>
-    <t>Backend-Backend</t>
-  </si>
-  <si>
-    <t>Automation-Selecting the Multiple Departments &amp; Designations</t>
-  </si>
-  <si>
-    <t>Automation-Negative without selecting the Select To Cmb</t>
-  </si>
-  <si>
-    <t>Automation-Negative without Giving the Holiday Name</t>
-  </si>
-  <si>
-    <t>Automation-Negative without Giving any data</t>
-  </si>
-  <si>
-    <t>Automation- Negative Without giving the Start &amp; End Dates</t>
-  </si>
-  <si>
-    <t>Automation-Negative by giving Numbers in Holiday name Text Box</t>
-  </si>
-  <si>
-    <t>#Holiday</t>
-  </si>
-  <si>
-    <t>Holiday-FKKK#</t>
-  </si>
-  <si>
-    <t>Holiday47</t>
-  </si>
-  <si>
-    <t>#Holiday#</t>
-  </si>
-  <si>
-    <t>EditedHoliday</t>
-  </si>
-  <si>
-    <t>ResetCmb</t>
-  </si>
-  <si>
-    <t>Financial Year-End</t>
-  </si>
-  <si>
-    <t>Calender Year-End</t>
-  </si>
-  <si>
-    <t>Holiday-DKK</t>
-  </si>
-  <si>
-    <t>Holiday-DKQK</t>
-  </si>
-  <si>
-    <t>Claim-1</t>
-  </si>
-  <si>
-    <t>Claim-2</t>
-  </si>
-  <si>
-    <t>Claim-3</t>
-  </si>
-  <si>
-    <t>Claim-4</t>
-  </si>
-  <si>
-    <t>Claim-5</t>
-  </si>
-  <si>
-    <t>Claim-6</t>
-  </si>
-  <si>
-    <t>Claim-7</t>
-  </si>
-  <si>
-    <t>Claim-8</t>
-  </si>
-  <si>
-    <t>Yearly</t>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>ItemCode</t>
+  </si>
+  <si>
+    <t>ItemName</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>InLoan</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>ItemNumber</t>
+  </si>
+  <si>
+    <t>PuchaseDate</t>
+  </si>
+  <si>
+    <t>LendTo</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Electrical</t>
+  </si>
+  <si>
+    <t>ItemNo-01</t>
+  </si>
+  <si>
+    <t>"04-01-2024"</t>
+  </si>
+  <si>
+    <t>Add Description</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Holiday-ADDD</t>
+  </si>
+  <si>
+    <t>Holiday-DKKKK</t>
+  </si>
+  <si>
+    <t>"3/7/2022"</t>
+  </si>
+  <si>
+    <t>"3/9/2022"</t>
+  </si>
+  <si>
+    <t>#Holiday##2</t>
+  </si>
+  <si>
+    <t>Holiday-FKKK##1</t>
+  </si>
+  <si>
+    <t>"3/14/2024"</t>
+  </si>
+  <si>
+    <t>"3/27/2024"</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t>#Holiday#112</t>
+  </si>
+  <si>
+    <t>Holiday-FKKK#111</t>
+  </si>
+  <si>
+    <t>Holiday47111</t>
+  </si>
+  <si>
+    <t>Holiday-001</t>
+  </si>
+  <si>
+    <t>"04-02-2024"</t>
+  </si>
+  <si>
+    <t>"04-06-2024"</t>
+  </si>
+  <si>
+    <t>Vara Prasad</t>
+  </si>
+  <si>
+    <t>EditHoliday</t>
+  </si>
+  <si>
+    <t>#Holiday#1</t>
+  </si>
+  <si>
+    <t>#EHoliday#</t>
+  </si>
+  <si>
+    <t>#Holiday#111</t>
+  </si>
+  <si>
+    <t>#Holiday#113</t>
+  </si>
+  <si>
+    <t>#EHoliday#1</t>
+  </si>
+  <si>
+    <t>Asset Add</t>
+  </si>
+  <si>
+    <t>Asset Edit</t>
+  </si>
+  <si>
+    <t>ItemAdd</t>
+  </si>
+  <si>
+    <t>ItemEdit</t>
+  </si>
+  <si>
+    <t>EditItemCode</t>
+  </si>
+  <si>
+    <t>EditItemNum</t>
+  </si>
+  <si>
+    <t>ItemNo-02</t>
+  </si>
+  <si>
+    <t>Add Asset with Item Details</t>
+  </si>
+  <si>
+    <t>Add Item Details by Editing Asset</t>
+  </si>
+  <si>
+    <t>Edit Item Details By Editing Asset</t>
+  </si>
+  <si>
+    <t>"04-10-2024"</t>
+  </si>
+  <si>
+    <t>ItemNo-03</t>
+  </si>
+  <si>
+    <t>ItemA</t>
+  </si>
+  <si>
+    <t>ItemB</t>
+  </si>
+  <si>
+    <t>ItemC</t>
+  </si>
+  <si>
+    <t>ItemA-001</t>
+  </si>
+  <si>
+    <t>ItemA-002</t>
+  </si>
+  <si>
+    <t>ItemA-003</t>
+  </si>
+  <si>
+    <t>Item-01</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>ItemA-0011</t>
+  </si>
+  <si>
+    <t>ItemNo-011</t>
+  </si>
+  <si>
+    <t>Recommender</t>
+  </si>
+  <si>
+    <t>Approver</t>
+  </si>
+  <si>
+    <t>EditLeaveType</t>
+  </si>
+  <si>
+    <t>Adjustment</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>DeekshithHR S</t>
+  </si>
+  <si>
+    <t>Emergency Leaves</t>
+  </si>
+  <si>
+    <t>Add Reason</t>
+  </si>
+  <si>
+    <t>Medical Leave</t>
   </si>
 </sst>
 </file>
@@ -250,6 +436,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -265,12 +457,6 @@
     <font>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -316,9 +502,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -327,18 +513,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -673,27 +860,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CD4893-B5A9-4970-A3F7-5E8B8B1CD3AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E697EF06-7586-4E61-9B5F-95671E9490FC}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -713,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -722,9 +907,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3">
         <v>70000</v>
@@ -739,21 +924,21 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3">
         <v>70000</v>
@@ -768,21 +953,21 @@
         <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3">
         <v>70000</v>
@@ -791,27 +976,27 @@
         <v>1000</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3">
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3">
         <v>70000</v>
@@ -820,27 +1005,27 @@
         <v>1000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E5" s="3">
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B6" s="3">
         <v>70000</v>
@@ -855,21 +1040,21 @@
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3">
         <v>70000</v>
@@ -884,21 +1069,21 @@
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3">
         <v>70000</v>
@@ -913,21 +1098,21 @@
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3">
         <v>70000</v>
@@ -942,106 +1127,226 @@
         <v>20</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFB4FBA-1549-4987-9782-438DFBED17CE}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73AF226-86F7-4C85-8083-CF58D21B63E5}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806A19D1-23E6-488C-A0DE-08DAC6402B28}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>22</v>
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="3">
-        <v>70000</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2000</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>12345</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1050,277 +1355,150 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884A6CEE-58E1-4A01-8F01-07486CE9ABEA}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA7AD3C-2325-46EB-85AE-1A50E5731A53}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="5"/>
-    <col min="5" max="5" width="26" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="6">
-        <v>44627</v>
-      </c>
-      <c r="C2" s="6">
-        <v>44629</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="6">
-        <v>44627</v>
-      </c>
-      <c r="C3" s="6">
-        <v>44629</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6">
-        <v>44627</v>
-      </c>
-      <c r="C4" s="6">
-        <v>44629</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>12345</v>
-      </c>
-      <c r="B7" s="6">
-        <v>44627</v>
-      </c>
-      <c r="C7" s="6">
-        <v>44629</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A21127D-A03B-48CA-B46D-60DC995C6407}">
-  <dimension ref="A1:M4"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="15.85546875" style="5" customWidth="1"/>
-    <col min="13" max="13" width="28.140625" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="6">
-        <v>44627</v>
-      </c>
-      <c r="D2" s="6">
-        <v>44629</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>51</v>
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="6">
-        <v>45365</v>
-      </c>
-      <c r="D3" s="6">
-        <v>45378</v>
+        <v>83</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="6">
-        <v>45365</v>
-      </c>
-      <c r="D4" s="6">
-        <v>45378</v>
+        <v>84</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>9</v>
@@ -1333,7 +1511,914 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4712C81-A109-49A2-9BE7-C63D256D1E4D}">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F636B6C4-F560-4C2E-A20F-DBD26C9434A3}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191214F8-0EBC-477F-A45E-02FECD6558BC}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="3">
+        <v>70000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DE13AD-0855-472B-9901-966F0CCD1CFA}">
+  <dimension ref="A1:T4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="29.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="17" max="18" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3">
         <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>72</v>
+      </c>
+      <c r="T4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59266322-0063-4800-9088-0084C0795D7E}">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02775F32-D4FD-4884-BE0D-68453A058A80}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
